--- a/xlsx/马丁·费尔德斯坦_intext.xlsx
+++ b/xlsx/马丁·费尔德斯坦_intext.xlsx
@@ -29,7 +29,7 @@
     <t>卫生经济学</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_马丁·费尔德斯坦</t>
+    <t>政策_政策_货币政策_马丁·费尔德斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%A6</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%B2%9D%E8%8C%A8%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B%E7%8D%8E</t>
   </si>
   <si>
-    <t>約翰·貝茨·克拉克獎</t>
+    <t>约翰·贝茨·克拉克奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E4%BA%BA%E5%B0%8F%E7%BB%84</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
